--- a/MATLAB_codes/Testing_endogeneity/Results/Excels/usual_suspects_fullpairwise_sorted_Unif_beta_Abs_deltax_23-Nov-2023.xlsx
+++ b/MATLAB_codes/Testing_endogeneity/Results/Excels/usual_suspects_fullpairwise_sorted_Unif_beta_Abs_deltax_23-Nov-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Testing_endogeneity\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2897E4D0-8F35-4EF6-B8AD-D0CA7A17BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163553DC-2CB6-43A4-8A03-6A9E51CB136D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10575" yWindow="2625" windowWidth="7500" windowHeight="7875" xr2:uid="{A1CF9FD2-E4F9-4E09-975C-CE225007A62F}"/>
   </bookViews>
